--- a/scripts/ccf_registration/wb3_sa1/WB3_Sagittal_1_mosaic_positions_25um_final.xlsx
+++ b/scripts/ccf_registration/wb3_sa1/WB3_Sagittal_1_mosaic_positions_25um_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CCF_registration_final\wb3_sa1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\230801_CCF_registration_final\wb3_sa1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC306535-0C32-4433-BB1D-198D6F1C2406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE0F4A9-0F92-40C3-9788-0CD19694FF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32385" yWindow="705" windowWidth="21600" windowHeight="12990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -720,7 +720,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
@@ -753,40 +753,35 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1206,19 +1201,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F723ED69-9A73-4B41-BB62-B1CDDB82B762}">
   <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="114.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="18" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="11" customWidth="1"/>
     <col min="5" max="5" width="9" style="11" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="11"/>
-    <col min="9" max="10" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="11"/>
     <col min="14" max="15" width="24.42578125" style="11" customWidth="1"/>
@@ -1243,3007 +1239,3095 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="20">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
         <f t="shared" ref="F2:F15" si="0">B2*200 + IF(D2="B",10,0)</f>
         <v>200</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="22">
         <v>185</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
+      <c r="H2" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="22">
         <v>527</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11">
-        <v>1</v>
-      </c>
-      <c r="M2">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22">
+        <v>1</v>
+      </c>
+      <c r="M2" s="20">
         <v>1.2</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="22">
         <v>12</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="22">
         <v>12</v>
       </c>
-      <c r="P2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>0</v>
-      </c>
-      <c r="R2" t="str">
+      <c r="P2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>0</v>
+      </c>
+      <c r="R2" s="20" t="str">
         <f t="shared" ref="R2:R15" si="1">_xlfn.CONCAT("sa1_sample",C2)</f>
         <v>sa1_sample1</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="22">
         <v>1000</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="22">
         <v>32</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="22">
         <v>13</v>
       </c>
-      <c r="V2" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="W2" s="11">
-        <v>5</v>
-      </c>
-      <c r="X2" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="V2" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" s="22">
+        <v>5</v>
+      </c>
+      <c r="X2" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC2" s="23" t="s">
+      <c r="AC2" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="20">
         <v>20</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH2">
-        <v>5</v>
-      </c>
-      <c r="AI2">
+      <c r="AH2" s="20">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="20">
         <v>10</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="20">
         <v>4</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="20">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="21">
         <v>2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="22">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="22">
         <v>2</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="22">
         <v>180</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
         <v>547</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11">
+      <c r="J3" s="22"/>
+      <c r="K3" s="22">
         <v>269</v>
       </c>
-      <c r="L3" s="11">
-        <v>1</v>
-      </c>
-      <c r="M3">
+      <c r="L3" s="22">
+        <v>1</v>
+      </c>
+      <c r="M3" s="20">
         <v>1.2</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="22">
         <v>16</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="22">
         <v>16</v>
       </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-      <c r="R3" t="str">
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>0</v>
+      </c>
+      <c r="R3" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample2</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="22">
         <v>1000</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="22">
         <v>64</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="22">
         <v>13</v>
       </c>
-      <c r="V3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="11">
-        <v>5</v>
-      </c>
-      <c r="X3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="V3" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="22">
+        <v>5</v>
+      </c>
+      <c r="X3" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="AA3" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AC3" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="20">
         <v>20</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="20">
         <v>3</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="20">
         <v>20</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="20">
         <v>4</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="20">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="21">
         <v>3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="22">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="22">
         <v>3</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="22">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
         <v>589</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11">
+      <c r="J4" s="22"/>
+      <c r="K4" s="22">
         <v>260</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="22">
         <v>0.9</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="20">
         <v>1.2</v>
       </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-      <c r="R4" t="str">
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>0</v>
+      </c>
+      <c r="R4" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample3</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="22">
         <v>2000</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="22">
         <v>16</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="22">
         <v>13</v>
       </c>
-      <c r="V4" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="11">
-        <v>5</v>
-      </c>
-      <c r="X4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="V4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="22">
+        <v>5</v>
+      </c>
+      <c r="X4" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA4" s="29" t="s">
+      <c r="AA4" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AB4" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="23" t="s">
+      <c r="AC4" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="20">
         <v>20</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="20">
         <v>2</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="20">
         <v>20</v>
       </c>
-      <c r="AJ4">
-        <v>5</v>
-      </c>
-      <c r="AK4">
+      <c r="AJ4" s="20">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="20">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>4</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="22">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="22">
         <v>4</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="22">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="22">
         <v>0.9</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="20">
         <v>1.2</v>
       </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>0</v>
-      </c>
-      <c r="R5" t="str">
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>0</v>
+      </c>
+      <c r="R5" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample4</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="22">
         <v>2000</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="22">
         <v>32</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="22">
         <v>13</v>
       </c>
-      <c r="V5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" s="11">
-        <v>5</v>
-      </c>
-      <c r="X5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="V5" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="22">
+        <v>5</v>
+      </c>
+      <c r="X5" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA5" s="29" t="s">
+      <c r="AA5" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AB5" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AC5" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="20">
         <v>20</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="20">
         <v>4</v>
       </c>
-      <c r="AI5">
-        <v>50</v>
-      </c>
-      <c r="AJ5">
-        <v>5</v>
-      </c>
-      <c r="AK5">
+      <c r="AI5" s="20">
+        <v>100</v>
+      </c>
+      <c r="AJ5" s="20">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="20">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="20">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11">
-        <v>5</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="21">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22">
+        <v>5</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="11">
-        <v>5</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="22">
+        <v>5</v>
+      </c>
+      <c r="F6" s="22">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="22">
         <v>-8</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="H6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
         <v>609</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11">
+      <c r="J6" s="20"/>
+      <c r="K6" s="22">
         <v>320</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="22">
         <v>0.9</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="20">
         <v>1.2</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="22">
         <v>41</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="22">
         <v>41</v>
       </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0</v>
-      </c>
-      <c r="R6" t="str">
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample5</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="22">
         <v>2000</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="22">
         <v>32</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="22">
         <v>13</v>
       </c>
-      <c r="V6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W6" s="11">
-        <v>5</v>
-      </c>
-      <c r="X6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="V6" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" s="22">
+        <v>5</v>
+      </c>
+      <c r="X6" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA6" s="29" t="s">
+      <c r="AA6" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB6" s="12" t="s">
+      <c r="AB6" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC6" s="23" t="s">
+      <c r="AC6" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AE6" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="20">
         <v>20</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="20">
         <v>2</v>
       </c>
-      <c r="AI6">
-        <v>50</v>
-      </c>
-      <c r="AJ6">
+      <c r="AI6" s="20">
+        <v>100</v>
+      </c>
+      <c r="AJ6" s="20">
         <v>4</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="20">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="21">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="22">
         <v>6</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="22">
         <v>6</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="22">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="22">
         <v>180</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="H7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
         <v>573</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="L7" s="11">
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="22">
         <v>0.95</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="20">
         <v>1.2</v>
       </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>0</v>
-      </c>
-      <c r="R7" t="str">
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample6</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="22">
         <v>1000</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="22">
         <v>32</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="22">
         <v>13</v>
       </c>
-      <c r="V7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W7" s="11">
-        <v>5</v>
-      </c>
-      <c r="X7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="V7" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" s="22">
+        <v>5</v>
+      </c>
+      <c r="X7" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA7" s="29" t="s">
+      <c r="AA7" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AB7" s="12" t="s">
+      <c r="AB7" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC7" s="23" t="s">
+      <c r="AC7" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="20">
         <v>20</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="20">
         <v>2</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="20">
         <v>50</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="20">
         <v>4</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="20">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="21">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="22">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="22">
         <v>7</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="22">
         <f t="shared" si="0"/>
         <v>1410</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="22">
         <v>-5</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="H8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
         <v>595</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="L8" s="11">
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="22">
         <v>0.9</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="20">
         <v>1.2</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="22">
         <v>56</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="22">
         <v>56</v>
       </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>0</v>
-      </c>
-      <c r="R8" t="str">
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample7</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="22">
         <v>2000</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="22">
         <v>16</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="22">
         <v>13</v>
       </c>
-      <c r="V8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W8" s="11">
-        <v>5</v>
-      </c>
-      <c r="X8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="V8" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" s="22">
+        <v>5</v>
+      </c>
+      <c r="X8" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA8" s="29" t="s">
+      <c r="AA8" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AB8" s="12" t="s">
+      <c r="AB8" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC8" s="23" t="s">
+      <c r="AC8" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AE8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="20">
         <v>20</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="20">
         <v>2</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="20">
         <v>50</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="20">
         <v>3</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="20">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="21">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="22">
         <v>8</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="22">
         <v>8</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="22">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="22">
         <v>-90</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="H9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="22">
         <v>590</v>
       </c>
-      <c r="L9" s="11">
+      <c r="K9" s="20"/>
+      <c r="L9" s="22">
         <v>0.9</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="20">
         <v>1.2</v>
       </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0</v>
-      </c>
-      <c r="R9" t="str">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample8</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="22">
         <v>2000</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="22">
         <v>16</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="22">
         <v>13</v>
       </c>
-      <c r="V9" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W9" s="11">
-        <v>5</v>
-      </c>
-      <c r="X9" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="V9" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" s="22">
+        <v>5</v>
+      </c>
+      <c r="X9" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA9" s="29" t="s">
+      <c r="AA9" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB9" s="12" t="s">
+      <c r="AB9" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC9" s="23" t="s">
+      <c r="AC9" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE9" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="20">
         <v>20</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="20">
         <v>3</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="20">
         <v>20</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="20">
         <v>4</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="20">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="22">
         <v>9</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="22">
         <v>9</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="22">
         <f t="shared" si="0"/>
         <v>1810</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="22">
         <v>185</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="H10" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="22">
         <v>576</v>
       </c>
-      <c r="L10" s="11">
+      <c r="K10" s="20"/>
+      <c r="L10" s="22">
         <v>0.9</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>0</v>
-      </c>
-      <c r="R10" t="str">
+      <c r="M10" s="20">
+        <v>1</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>0</v>
+      </c>
+      <c r="R10" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample9</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="22">
         <v>1000</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="22">
         <v>16</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="22">
         <v>13</v>
       </c>
-      <c r="V10" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W10" s="11">
-        <v>5</v>
-      </c>
-      <c r="X10" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="V10" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" s="22">
+        <v>5</v>
+      </c>
+      <c r="X10" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA10" s="29" t="s">
+      <c r="AA10" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB10" s="12" t="s">
+      <c r="AB10" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC10" s="23" t="s">
+      <c r="AC10" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD10" s="18" t="s">
+      <c r="AD10" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AE10" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="20">
         <v>50</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="20">
         <v>2</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="20">
         <v>20</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="20">
         <v>4</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="20">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="21">
         <v>10</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="22">
         <v>10</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>10</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G11" s="25">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="25">
+      <c r="G11" s="22">
+        <v>5</v>
+      </c>
+      <c r="H11" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22">
         <v>572</v>
       </c>
-      <c r="L11" s="25">
+      <c r="K11" s="20"/>
+      <c r="L11" s="22">
         <v>0.95</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="20">
         <v>1.2</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="25">
-        <v>0</v>
-      </c>
-      <c r="R11" s="24" t="str">
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample10</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S11" s="22">
         <v>1000</v>
       </c>
-      <c r="T11" s="25">
+      <c r="T11" s="22">
         <v>16</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11" s="22">
         <v>13</v>
       </c>
-      <c r="V11" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="W11" s="25">
-        <v>5</v>
-      </c>
-      <c r="X11" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="25">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="24" t="s">
+      <c r="V11" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" s="22">
+        <v>5</v>
+      </c>
+      <c r="X11" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA11" s="30" t="s">
+      <c r="AA11" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB11" s="27" t="s">
+      <c r="AB11" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC11" s="28" t="s">
+      <c r="AC11" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD11" s="24" t="s">
+      <c r="AD11" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE11" s="24" t="s">
+      <c r="AE11" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF11" s="24">
+      <c r="AF11" s="20">
         <v>20</v>
       </c>
-      <c r="AG11" s="24">
+      <c r="AG11" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH11" s="24">
+      <c r="AH11" s="20">
         <v>4</v>
       </c>
-      <c r="AI11" s="24">
+      <c r="AI11" s="20">
         <v>100</v>
       </c>
-      <c r="AJ11" s="24">
-        <v>5</v>
-      </c>
-      <c r="AK11" s="24">
+      <c r="AJ11" s="20">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="20">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="21">
         <v>11</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="23">
         <v>11</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="22">
         <f t="shared" si="0"/>
         <v>2210</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="22">
         <v>180</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="H12" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22">
         <v>521</v>
       </c>
-      <c r="L12" s="11">
+      <c r="K12" s="20"/>
+      <c r="L12" s="22">
         <v>1.05</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="22">
         <v>92</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="22">
         <v>86</v>
       </c>
-      <c r="P12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>0</v>
-      </c>
-      <c r="R12" t="str">
+      <c r="P12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0</v>
+      </c>
+      <c r="R12" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample11</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="22">
         <v>1000</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="22">
         <v>16</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="22">
         <v>13</v>
       </c>
-      <c r="V12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W12" s="11">
-        <v>5</v>
-      </c>
-      <c r="X12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="V12" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" s="22">
+        <v>5</v>
+      </c>
+      <c r="X12" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA12" s="29" t="s">
+      <c r="AA12" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB12" s="12" t="s">
+      <c r="AB12" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC12" s="23" t="s">
+      <c r="AC12" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AE12" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="20">
         <v>20</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="20">
         <v>4</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="20">
         <v>20</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="20">
         <v>3</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="20">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="21">
         <v>12</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="22">
         <v>12</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="22">
         <f t="shared" si="0"/>
         <v>2410</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="22">
         <v>180</v>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
+      <c r="H13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="22">
         <v>1.05</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" t="str">
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>0</v>
+      </c>
+      <c r="R13" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample12</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="22">
         <v>1000</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="22">
         <v>16</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="22">
         <v>10</v>
       </c>
-      <c r="V13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W13" s="11">
-        <v>5</v>
-      </c>
-      <c r="X13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z13" t="s">
+      <c r="V13" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" s="22">
+        <v>5</v>
+      </c>
+      <c r="X13" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA13" s="29" t="s">
+      <c r="AA13" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB13" s="12" t="s">
+      <c r="AB13" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC13" s="23" t="s">
+      <c r="AC13" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AD13" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AE13" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="20">
         <v>20</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH13">
-        <v>1</v>
-      </c>
-      <c r="AI13">
+      <c r="AH13" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="20">
         <v>50</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" s="20">
         <v>2</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="21">
         <v>13</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="22">
         <v>13</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="22">
         <f t="shared" si="0"/>
         <v>2610</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="22">
         <v>-85</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
+      <c r="H14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="22">
         <v>1.05</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>0</v>
-      </c>
-      <c r="R14" t="str">
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample13</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="22">
         <v>1000</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="22">
         <v>16</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="22">
         <v>10</v>
       </c>
-      <c r="V14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W14" s="11">
-        <v>5</v>
-      </c>
-      <c r="X14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z14" t="s">
+      <c r="V14" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" s="22">
+        <v>5</v>
+      </c>
+      <c r="X14" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA14" s="29" t="s">
+      <c r="AA14" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB14" s="12" t="s">
+      <c r="AB14" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC14" s="23" t="s">
+      <c r="AC14" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD14" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AE14" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="20">
         <v>20</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" s="20">
         <v>4</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" s="20">
         <v>3</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" s="20">
         <v>2</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="21">
         <v>14</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="22">
         <v>14</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="22">
         <f t="shared" si="0"/>
         <v>2810</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="22">
         <v>-90</v>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
-        <v>1</v>
-      </c>
-      <c r="M15">
+      <c r="H15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="22">
+        <v>1</v>
+      </c>
+      <c r="M15" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>0</v>
-      </c>
-      <c r="R15" t="str">
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>0</v>
+      </c>
+      <c r="R15" s="20" t="str">
         <f t="shared" si="1"/>
         <v>sa1_sample14</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="22">
         <v>1000</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="22">
         <v>32</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="22">
         <v>10</v>
       </c>
-      <c r="V15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W15" s="11">
-        <v>5</v>
-      </c>
-      <c r="X15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z15" t="s">
+      <c r="V15" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" s="22">
+        <v>5</v>
+      </c>
+      <c r="X15" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA15" s="29" t="s">
+      <c r="AA15" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB15" s="12" t="s">
+      <c r="AB15" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC15" s="23" t="s">
+      <c r="AC15" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AD15" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AE15" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="20">
         <v>20</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="20">
         <v>4</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="20">
         <v>3</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="20">
         <v>2</v>
       </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="AK15" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
         <v>2875</v>
       </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="25">
-        <v>1</v>
-      </c>
-      <c r="M16" s="24">
+      <c r="G16" s="22">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="22">
+        <v>1</v>
+      </c>
+      <c r="M16" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="25">
-        <v>0</v>
-      </c>
-      <c r="R16" s="24" t="s">
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>0</v>
+      </c>
+      <c r="R16" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="S16" s="25">
+      <c r="S16" s="22">
         <v>1000</v>
       </c>
-      <c r="T16" s="25">
+      <c r="T16" s="22">
         <v>32</v>
       </c>
-      <c r="U16" s="25">
+      <c r="U16" s="22">
         <v>10</v>
       </c>
-      <c r="V16" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="W16" s="25">
-        <v>5</v>
-      </c>
-      <c r="X16" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="25">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="24" t="s">
+      <c r="V16" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" s="22">
+        <v>5</v>
+      </c>
+      <c r="X16" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA16" s="30" t="s">
+      <c r="AA16" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB16" s="27" t="s">
+      <c r="AB16" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC16" s="28" t="s">
+      <c r="AC16" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD16" s="24" t="s">
+      <c r="AD16" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE16" s="24" t="s">
+      <c r="AE16" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF16" s="24">
+      <c r="AF16" s="20">
         <v>20</v>
       </c>
-      <c r="AG16" s="24">
+      <c r="AG16" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="20">
         <v>4</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" s="20">
         <v>3</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="20">
         <v>2</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="21">
         <v>16</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="22">
         <v>15</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="22">
         <f>B17*200 + IF(D17="B",10,0)</f>
         <v>3210</v>
       </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="G17" s="22">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="22">
+        <v>1</v>
+      </c>
+      <c r="M17" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>0</v>
-      </c>
-      <c r="R17" t="str">
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>0</v>
+      </c>
+      <c r="R17" s="20" t="str">
         <f>_xlfn.CONCAT("sa1_sample",C17)</f>
         <v>sa1_sample15</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="22">
         <v>1000</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="22">
         <v>32</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="22">
         <v>10</v>
       </c>
-      <c r="V17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W17" s="11">
-        <v>5</v>
-      </c>
-      <c r="X17" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="V17" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" s="22">
+        <v>5</v>
+      </c>
+      <c r="X17" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA17" s="29" t="s">
+      <c r="AA17" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB17" s="12" t="s">
+      <c r="AB17" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC17" s="23" t="s">
+      <c r="AC17" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD17" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE17" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="20">
         <v>20</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" s="20">
         <v>4</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" s="20">
         <v>3</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" s="20">
         <v>2</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="21">
         <v>17</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="22">
         <v>16</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="22">
         <f>B18*200 + IF(D18="B",10,0)</f>
         <v>3400</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="22">
         <v>180</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="H18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="22">
+        <v>1</v>
+      </c>
+      <c r="M18" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P18" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>0</v>
-      </c>
-      <c r="R18" t="str">
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>0</v>
+      </c>
+      <c r="R18" s="20" t="str">
         <f>_xlfn.CONCAT("sa1_sample",C18)</f>
         <v>sa1_sample16</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="22">
         <v>1000</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="22">
         <v>32</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="22">
         <v>10</v>
       </c>
-      <c r="V18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W18" s="11">
-        <v>5</v>
-      </c>
-      <c r="X18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z18" t="s">
+      <c r="V18" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" s="22">
+        <v>5</v>
+      </c>
+      <c r="X18" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA18" s="29" t="s">
+      <c r="AA18" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB18" s="12" t="s">
+      <c r="AB18" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC18" s="23" t="s">
+      <c r="AC18" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AD18" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AE18" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="20">
         <v>20</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="20">
         <v>4</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" s="20">
         <v>3</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" s="20">
         <v>2</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="21">
         <v>18</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="22">
         <v>16</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="22">
         <f>B19*200 + IF(D19="B",10,0)</f>
         <v>3600</v>
       </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>1</v>
-      </c>
-      <c r="M19">
+      <c r="G19" s="22">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="22">
+        <v>1</v>
+      </c>
+      <c r="M19" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="22">
         <v>134</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="22">
         <v>134</v>
       </c>
-      <c r="P19" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>0</v>
-      </c>
-      <c r="R19" t="str">
+      <c r="P19" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>0</v>
+      </c>
+      <c r="R19" s="20" t="str">
         <f>_xlfn.CONCAT("sa1_sample",C19)</f>
         <v>sa1_sample16</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="22">
         <v>1000</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="22">
         <v>32</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="22">
         <v>10</v>
       </c>
-      <c r="V19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W19" s="11">
-        <v>5</v>
-      </c>
-      <c r="X19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z19" t="s">
+      <c r="V19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" s="22">
+        <v>5</v>
+      </c>
+      <c r="X19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA19" s="29" t="s">
+      <c r="AA19" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB19" s="12" t="s">
+      <c r="AB19" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC19" s="23" t="s">
+      <c r="AC19" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AD19" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AE19" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="20">
         <v>20</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="20">
         <v>4</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="20">
         <v>3</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" s="20">
         <v>2</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="21">
         <v>20</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="22">
         <v>15</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="22">
         <f>B20*200 + IF(D20="B",10,0)</f>
         <v>4010</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="22">
         <v>180</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="11">
-        <v>1</v>
-      </c>
-      <c r="M20">
+      <c r="H20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="22">
+        <v>1</v>
+      </c>
+      <c r="M20" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>0</v>
-      </c>
-      <c r="R20" t="str">
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>0</v>
+      </c>
+      <c r="R20" s="20" t="str">
         <f>_xlfn.CONCAT("sa1_sample",C20)</f>
         <v>sa1_sample15</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="22">
         <v>1000</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="22">
         <v>16</v>
       </c>
-      <c r="U20" s="11">
+      <c r="U20" s="22">
         <v>10</v>
       </c>
-      <c r="V20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W20" s="11">
-        <v>5</v>
-      </c>
-      <c r="X20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z20" t="s">
+      <c r="V20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" s="22">
+        <v>5</v>
+      </c>
+      <c r="X20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA20" s="29" t="s">
+      <c r="AA20" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB20" s="12" t="s">
+      <c r="AB20" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC20" s="23" t="s">
+      <c r="AC20" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AD20" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AE20" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="20">
         <v>20</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="20">
         <v>4</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="20">
         <v>3</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" s="20">
         <v>2</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22">
         <v>4435</v>
       </c>
-      <c r="G21" s="25">
-        <v>0</v>
-      </c>
-      <c r="H21" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25">
-        <v>1</v>
-      </c>
-      <c r="M21" s="24">
+      <c r="G21" s="22">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="22">
+        <v>1</v>
+      </c>
+      <c r="M21" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="22">
         <v>150</v>
       </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>0</v>
-      </c>
-      <c r="R21" s="24" t="s">
+      <c r="O21" s="22"/>
+      <c r="P21" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>0</v>
+      </c>
+      <c r="R21" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="S21" s="25">
+      <c r="S21" s="22">
         <v>1000</v>
       </c>
-      <c r="T21" s="25">
+      <c r="T21" s="22">
         <v>16</v>
       </c>
-      <c r="U21" s="25">
+      <c r="U21" s="22">
         <v>10</v>
       </c>
-      <c r="V21" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="W21" s="25">
-        <v>5</v>
-      </c>
-      <c r="X21" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="25">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="24" t="s">
+      <c r="V21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" s="22">
+        <v>5</v>
+      </c>
+      <c r="X21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA21" s="30" t="s">
+      <c r="AA21" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB21" s="27" t="s">
+      <c r="AB21" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC21" s="28" t="s">
+      <c r="AC21" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD21" s="24" t="s">
+      <c r="AD21" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE21" s="24" t="s">
+      <c r="AE21" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF21" s="24">
+      <c r="AF21" s="20">
         <v>20</v>
       </c>
-      <c r="AG21" s="24">
+      <c r="AG21" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="20">
         <v>4</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="20">
         <v>3</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" s="20">
         <v>2</v>
       </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="AK21" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="21">
         <v>22</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="22">
         <v>14</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="22">
         <f>B22*200 + IF(D22="B",10,0)</f>
         <v>4410</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="22">
         <v>90</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22" s="11">
-        <v>1</v>
-      </c>
-      <c r="M22">
+      <c r="H22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="22">
         <v>149</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>0</v>
-      </c>
-      <c r="R22" t="str">
+      <c r="O22" s="22"/>
+      <c r="P22" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>0</v>
+      </c>
+      <c r="R22" s="20" t="str">
         <f>_xlfn.CONCAT("sa1_sample",C22)</f>
         <v>sa1_sample14</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="22">
         <v>2000</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="22">
         <v>32</v>
       </c>
-      <c r="U22" s="11">
+      <c r="U22" s="22">
         <v>10</v>
       </c>
-      <c r="V22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W22" s="11">
-        <v>5</v>
-      </c>
-      <c r="X22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z22" t="s">
+      <c r="V22" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" s="22">
+        <v>5</v>
+      </c>
+      <c r="X22" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA22" s="29" t="s">
+      <c r="AA22" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB22" s="12" t="s">
+      <c r="AB22" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC22" s="23" t="s">
+      <c r="AC22" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AD22" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AE22" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="20">
         <v>20</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="20">
         <v>4</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" s="20">
         <v>3</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" s="20">
         <v>2</v>
       </c>
-      <c r="AK22">
+      <c r="AK22" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="21">
         <v>23</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="22">
         <v>13</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="22">
         <f>B23*200 + IF(D23="B",10,0)</f>
         <v>4610</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="22">
         <v>90</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <v>1</v>
-      </c>
-      <c r="M23">
+      <c r="H23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="22">
+        <v>1</v>
+      </c>
+      <c r="M23" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="22">
         <v>156</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="22">
         <v>157</v>
       </c>
-      <c r="P23" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>0</v>
-      </c>
-      <c r="R23" t="str">
+      <c r="P23" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>0</v>
+      </c>
+      <c r="R23" s="20" t="str">
         <f>_xlfn.CONCAT("sa1_sample",C23)</f>
         <v>sa1_sample13</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="22">
         <v>1000</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="22">
         <v>16</v>
       </c>
-      <c r="U23" s="11">
+      <c r="U23" s="22">
         <v>10</v>
       </c>
-      <c r="V23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W23" s="11">
-        <v>5</v>
-      </c>
-      <c r="X23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z23" t="s">
+      <c r="V23" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" s="22">
+        <v>5</v>
+      </c>
+      <c r="X23" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA23" s="29" t="s">
+      <c r="AA23" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB23" s="12" t="s">
+      <c r="AB23" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC23" s="23" t="s">
+      <c r="AC23" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AD23" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AE23" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="20">
         <v>20</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" s="20">
         <v>4</v>
       </c>
-      <c r="AI23">
+      <c r="AI23" s="20">
         <v>3</v>
       </c>
-      <c r="AJ23">
+      <c r="AJ23" s="20">
         <v>2</v>
       </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="AK23" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25">
+      <c r="E24" s="22"/>
+      <c r="F24" s="22">
         <v>4635</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="22">
         <v>-5</v>
       </c>
-      <c r="H24" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="25">
-        <v>1</v>
-      </c>
-      <c r="M24" s="24">
+      <c r="H24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="22">
+        <v>1</v>
+      </c>
+      <c r="M24" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="22">
         <v>157</v>
       </c>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>0</v>
-      </c>
-      <c r="R24" s="24" t="s">
+      <c r="O24" s="22"/>
+      <c r="P24" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>0</v>
+      </c>
+      <c r="R24" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="S24" s="25">
+      <c r="S24" s="22">
         <v>1000</v>
       </c>
-      <c r="T24" s="25">
+      <c r="T24" s="22">
         <v>16</v>
       </c>
-      <c r="U24" s="25">
+      <c r="U24" s="22">
         <v>10</v>
       </c>
-      <c r="V24" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="W24" s="25">
-        <v>5</v>
-      </c>
-      <c r="X24" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="25">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="24" t="s">
+      <c r="V24" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" s="22">
+        <v>5</v>
+      </c>
+      <c r="X24" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA24" s="30" t="s">
+      <c r="AA24" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB24" s="27" t="s">
+      <c r="AB24" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC24" s="28" t="s">
+      <c r="AC24" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD24" s="24" t="s">
+      <c r="AD24" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE24" s="24" t="s">
+      <c r="AE24" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF24" s="24">
+      <c r="AF24" s="20">
         <v>20</v>
       </c>
-      <c r="AG24" s="24">
+      <c r="AG24" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="20">
         <v>4</v>
       </c>
-      <c r="AI24">
+      <c r="AI24" s="20">
         <v>3</v>
       </c>
-      <c r="AJ24">
+      <c r="AJ24" s="20">
         <v>2</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="21">
         <v>24</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="22">
         <v>12</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="22">
         <f>B25*200 + IF(D25="B",10,0)</f>
         <v>4810</v>
       </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1</v>
-      </c>
-      <c r="M25">
+      <c r="G25" s="22">
+        <v>0</v>
+      </c>
+      <c r="H25" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="22">
+        <v>1</v>
+      </c>
+      <c r="M25" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P25" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>0</v>
-      </c>
-      <c r="R25" t="str">
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>0</v>
+      </c>
+      <c r="R25" s="20" t="str">
         <f>_xlfn.CONCAT("sa1_sample",C25)</f>
         <v>sa1_sample12</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="22">
         <v>1000</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T25" s="22">
         <v>32</v>
       </c>
-      <c r="U25" s="11">
+      <c r="U25" s="22">
         <v>10</v>
       </c>
-      <c r="V25" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W25" s="11">
-        <v>5</v>
-      </c>
-      <c r="X25" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z25" t="s">
+      <c r="V25" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" s="22">
+        <v>5</v>
+      </c>
+      <c r="X25" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA25" s="29" t="s">
+      <c r="AA25" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB25" s="12" t="s">
+      <c r="AB25" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC25" s="23" t="s">
+      <c r="AC25" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AD25" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AE25" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="20">
         <v>20</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" s="20">
         <v>4</v>
       </c>
-      <c r="AI25">
+      <c r="AI25" s="20">
         <v>3</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ25" s="20">
         <v>2</v>
       </c>
-      <c r="AK25">
+      <c r="AK25" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="21">
         <v>25</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="22">
         <v>11</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="22">
         <f>B26*200 + IF(D26="B",10,0)</f>
         <v>5010</v>
       </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="11">
-        <v>1</v>
-      </c>
-      <c r="M26">
+      <c r="G26" s="22">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="22">
+        <v>1</v>
+      </c>
+      <c r="M26" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P26" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="11">
-        <v>0</v>
-      </c>
-      <c r="R26" t="str">
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>0</v>
+      </c>
+      <c r="R26" s="20" t="str">
         <f>_xlfn.CONCAT("sa1_sample",C26)</f>
         <v>sa1_sample11</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="22">
         <v>2000</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="22">
         <v>32</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U26" s="22">
         <v>10</v>
       </c>
-      <c r="V26" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W26" s="11">
-        <v>5</v>
-      </c>
-      <c r="X26" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z26" t="s">
+      <c r="V26" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" s="22">
+        <v>5</v>
+      </c>
+      <c r="X26" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA26" s="29" t="s">
+      <c r="AA26" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB26" s="12" t="s">
+      <c r="AB26" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC26" s="23" t="s">
+      <c r="AC26" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AD26" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AE26" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="20">
         <v>20</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" s="20">
         <v>4</v>
       </c>
-      <c r="AI26">
+      <c r="AI26" s="20">
         <v>3</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ26" s="20">
         <v>2</v>
       </c>
-      <c r="AK26">
+      <c r="AK26" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="21">
         <v>26</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="22">
         <v>17</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="22">
         <f>B27*200 + IF(D27="B",10,0)</f>
         <v>5200</v>
       </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
-        <v>1</v>
-      </c>
-      <c r="M27">
+      <c r="G27" s="22">
+        <v>0</v>
+      </c>
+      <c r="H27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="22">
+        <v>1</v>
+      </c>
+      <c r="M27" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>0</v>
-      </c>
-      <c r="R27" t="str">
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>0</v>
+      </c>
+      <c r="R27" s="20" t="str">
         <f>_xlfn.CONCAT("sa1_sample",C27)</f>
         <v>sa1_sample17</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S27" s="22">
         <v>1000</v>
       </c>
-      <c r="T27" s="11">
+      <c r="T27" s="22">
         <v>24</v>
       </c>
-      <c r="U27" s="11">
+      <c r="U27" s="22">
         <v>10</v>
       </c>
-      <c r="V27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W27" s="11">
-        <v>5</v>
-      </c>
-      <c r="X27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z27" t="s">
+      <c r="V27" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" s="22">
+        <v>5</v>
+      </c>
+      <c r="X27" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA27" s="29" t="s">
+      <c r="AA27" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB27" s="12" t="s">
+      <c r="AB27" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC27" s="23" t="s">
+      <c r="AC27" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AD27" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AE27" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="20">
         <v>20</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="20">
         <v>4</v>
       </c>
-      <c r="AI27">
+      <c r="AI27" s="20">
         <v>3</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ27" s="20">
         <v>2</v>
       </c>
-      <c r="AK27">
+      <c r="AK27" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="21">
         <v>27</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="22">
         <v>17</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="22">
         <f>B28*200 + IF(D28="B",10,0)</f>
         <v>5400</v>
       </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="11">
-        <v>1</v>
-      </c>
-      <c r="M28">
+      <c r="G28" s="22">
+        <v>0</v>
+      </c>
+      <c r="H28" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="22">
+        <v>1</v>
+      </c>
+      <c r="M28" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P28" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="11">
-        <v>0</v>
-      </c>
-      <c r="R28" t="str">
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>0</v>
+      </c>
+      <c r="R28" s="20" t="str">
         <f>_xlfn.CONCAT("sa1_sample",C28)</f>
         <v>sa1_sample17</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S28" s="22">
         <v>1000</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="22">
         <v>24</v>
       </c>
-      <c r="U28" s="11">
+      <c r="U28" s="22">
         <v>10</v>
       </c>
-      <c r="V28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W28" s="11">
-        <v>5</v>
-      </c>
-      <c r="X28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z28" t="s">
+      <c r="V28" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" s="22">
+        <v>5</v>
+      </c>
+      <c r="X28" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA28" s="29" t="s">
+      <c r="AA28" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB28" s="12" t="s">
+      <c r="AB28" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC28" s="23" t="s">
+      <c r="AC28" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AD28" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AE28" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="20">
         <v>20</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" s="20">
         <v>4</v>
       </c>
-      <c r="AI28">
+      <c r="AI28" s="20">
         <v>3</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ28" s="20">
         <v>2</v>
       </c>
-      <c r="AK28">
+      <c r="AK28" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="21">
         <v>28</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="22">
         <v>17</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="22">
         <f>B29*200 + IF(D29="B",10,0)</f>
         <v>5600</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="22">
         <v>90</v>
       </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <v>1</v>
-      </c>
-      <c r="M29">
+      <c r="H29" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="22">
+        <v>1</v>
+      </c>
+      <c r="M29" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="22">
         <v>194</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="22">
         <v>194</v>
       </c>
-      <c r="P29" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="11">
-        <v>0</v>
-      </c>
-      <c r="R29" t="str">
+      <c r="P29" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>0</v>
+      </c>
+      <c r="R29" s="20" t="str">
         <f>_xlfn.CONCAT("sa1_sample",C29)</f>
         <v>sa1_sample17</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S29" s="22">
         <v>1000</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="22">
         <v>24</v>
       </c>
-      <c r="U29" s="11">
+      <c r="U29" s="22">
         <v>10</v>
       </c>
-      <c r="V29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W29" s="11">
-        <v>5</v>
-      </c>
-      <c r="X29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z29" t="s">
+      <c r="V29" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" s="22">
+        <v>5</v>
+      </c>
+      <c r="X29" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AA29" s="29" t="s">
+      <c r="AA29" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AB29" s="12" t="s">
+      <c r="AB29" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC29" s="23" t="s">
+      <c r="AC29" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AD29" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AE29" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="20">
         <v>20</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" s="20">
         <v>4</v>
       </c>
-      <c r="AI29">
+      <c r="AI29" s="20">
         <v>3</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ29" s="20">
         <v>2</v>
       </c>
-      <c r="AK29">
+      <c r="AK29" s="20">
         <v>0</v>
       </c>
     </row>
